--- a/DateBase/orders/Nha Thu_2025-12-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-29.xlsx
@@ -864,6 +864,9 @@
       <c r="C51" t="str">
         <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -925,7 +928,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0225152048481510120510151058106455511301515302035202015205551510101020155201510100</v>
+        <v>02251520484815101205101510581064555113015153020352020152055515101010201552015101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,9 +868,173 @@
         <v>10</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>1</v>
+      </c>
+      <c r="C52" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>368_旱伞叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>332_熊尾草_bear tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F62" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>2</v>
+      </c>
+      <c r="C64" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F64" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F65" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F68" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -928,7 +1092,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02251520484815101205101510581064555113015153020352020152055515101010201552015101010</v>
+        <v>0225152048481510120510151058106455511301515302035202015205551510101020155201510101015315121551085155015885525150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-29.xlsx
@@ -1031,6 +1031,9 @@
       <c r="C71" t="str">
         <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F71" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1092,7 +1095,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0225152048481510120510151058106455511301515302035202015205551510101020155201510101015315121551085155015885525150</v>
+        <v>02251520484815101205101510581064555113015153020352020152055515101010201552015101010153151215510851550158855251512</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -876,7 +876,7 @@
         <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
       </c>
       <c r="F52" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -1035,9 +1035,195 @@
         <v>12</v>
       </c>
     </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>3</v>
+      </c>
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="C75" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="C78" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="C79" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>432_小刺秦/情人果_small Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>850_多丁樱桃太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>850_多丁樱桃太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F85" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>739_鸢尾花白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F86" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F87" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>4</v>
+      </c>
+      <c r="C88" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F88" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>549_虞美人 混色_Icelandic Poppy_undefined_1bunch</v>
+      </c>
+      <c r="F90" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>820_蝴蝶洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F91" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F92" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>738_鸢尾花蓝_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L93"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1095,7 +1281,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02251520484815101205101510581064555113015153020352020152055515101010201552015101010153151215510851550158855251512</v>
+        <v>0225152048481510120510151058106455511301515302035202015205551510101020155201510101014315121551085155015885525151210810108510526655510105101210810</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-29.xlsx
@@ -1283,6 +1283,9 @@
       <c r="G2" t="str">
         <v>0225152048481510120510151058106455511301515302035202015205551510101020155201510101014315121551085155015885525151210810108510526655510105101210810</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
